--- a/sample-data-no-header-empty-lines.xlsx
+++ b/sample-data-no-header-empty-lines.xlsx
@@ -415,121 +415,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C12"/>
+  <dimension ref="A3:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
         <v>18</v>
       </c>
     </row>
